--- a/team_specific_matrix/Fla. Atlantic_B.xlsx
+++ b/team_specific_matrix/Fla. Atlantic_B.xlsx
@@ -498,10 +498,10 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0.1614906832298137</v>
+        <v>0.165938864628821</v>
       </c>
       <c r="C2">
-        <v>0.5962732919254659</v>
+        <v>0.5938864628820961</v>
       </c>
       <c r="D2">
         <v>0</v>
@@ -522,7 +522,7 @@
         <v>0</v>
       </c>
       <c r="J2">
-        <v>0.006211180124223602</v>
+        <v>0.008733624454148471</v>
       </c>
       <c r="K2">
         <v>0</v>
@@ -540,7 +540,7 @@
         <v>0</v>
       </c>
       <c r="P2">
-        <v>0.09937888198757763</v>
+        <v>0.1091703056768559</v>
       </c>
       <c r="Q2">
         <v>0</v>
@@ -549,7 +549,7 @@
         <v>0</v>
       </c>
       <c r="S2">
-        <v>0.1366459627329193</v>
+        <v>0.1222707423580786</v>
       </c>
     </row>
     <row r="3" spans="1:19">
@@ -557,10 +557,10 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0.0198019801980198</v>
+        <v>0.01398601398601399</v>
       </c>
       <c r="C3">
-        <v>0.0396039603960396</v>
+        <v>0.03496503496503497</v>
       </c>
       <c r="D3">
         <v>0</v>
@@ -581,7 +581,7 @@
         <v>0</v>
       </c>
       <c r="J3">
-        <v>0.0396039603960396</v>
+        <v>0.02797202797202797</v>
       </c>
       <c r="K3">
         <v>0</v>
@@ -599,7 +599,7 @@
         <v>0</v>
       </c>
       <c r="P3">
-        <v>0.7425742574257426</v>
+        <v>0.7412587412587412</v>
       </c>
       <c r="Q3">
         <v>0</v>
@@ -608,7 +608,7 @@
         <v>0</v>
       </c>
       <c r="S3">
-        <v>0.1584158415841584</v>
+        <v>0.1818181818181818</v>
       </c>
     </row>
     <row r="4" spans="1:19">
@@ -640,7 +640,7 @@
         <v>0</v>
       </c>
       <c r="J4">
-        <v>0</v>
+        <v>0.02702702702702703</v>
       </c>
       <c r="K4">
         <v>0</v>
@@ -658,7 +658,7 @@
         <v>0</v>
       </c>
       <c r="P4">
-        <v>0.7037037037037037</v>
+        <v>0.7027027027027027</v>
       </c>
       <c r="Q4">
         <v>0</v>
@@ -667,7 +667,7 @@
         <v>0</v>
       </c>
       <c r="S4">
-        <v>0.2962962962962963</v>
+        <v>0.2702702702702703</v>
       </c>
     </row>
     <row r="5" spans="1:19">
@@ -734,19 +734,19 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.05594405594405594</v>
+        <v>0.05851063829787234</v>
       </c>
       <c r="C6">
         <v>0</v>
       </c>
       <c r="D6">
-        <v>0.03496503496503497</v>
+        <v>0.02659574468085106</v>
       </c>
       <c r="E6">
         <v>0</v>
       </c>
       <c r="F6">
-        <v>0.06293706293706294</v>
+        <v>0.06382978723404255</v>
       </c>
       <c r="G6">
         <v>0</v>
@@ -758,7 +758,7 @@
         <v>0</v>
       </c>
       <c r="J6">
-        <v>0.2307692307692308</v>
+        <v>0.25</v>
       </c>
       <c r="K6">
         <v>0</v>
@@ -773,19 +773,19 @@
         <v>0</v>
       </c>
       <c r="O6">
-        <v>0.02097902097902098</v>
+        <v>0.02659574468085106</v>
       </c>
       <c r="P6">
         <v>0</v>
       </c>
       <c r="Q6">
-        <v>0.2167832167832168</v>
+        <v>0.1968085106382979</v>
       </c>
       <c r="R6">
-        <v>0.05594405594405594</v>
+        <v>0.05851063829787234</v>
       </c>
       <c r="S6">
-        <v>0.3216783216783217</v>
+        <v>0.3191489361702128</v>
       </c>
     </row>
     <row r="7" spans="1:19">
@@ -793,19 +793,19 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.1188811188811189</v>
+        <v>0.1197916666666667</v>
       </c>
       <c r="C7">
         <v>0</v>
       </c>
       <c r="D7">
-        <v>0.006993006993006993</v>
+        <v>0.005208333333333333</v>
       </c>
       <c r="E7">
         <v>0</v>
       </c>
       <c r="F7">
-        <v>0.04195804195804196</v>
+        <v>0.05208333333333334</v>
       </c>
       <c r="G7">
         <v>0</v>
@@ -817,7 +817,7 @@
         <v>0</v>
       </c>
       <c r="J7">
-        <v>0.1608391608391608</v>
+        <v>0.171875</v>
       </c>
       <c r="K7">
         <v>0</v>
@@ -832,19 +832,19 @@
         <v>0</v>
       </c>
       <c r="O7">
-        <v>0.03496503496503497</v>
+        <v>0.03125</v>
       </c>
       <c r="P7">
         <v>0</v>
       </c>
       <c r="Q7">
-        <v>0.1678321678321678</v>
+        <v>0.1614583333333333</v>
       </c>
       <c r="R7">
-        <v>0.1188811188811189</v>
+        <v>0.09375</v>
       </c>
       <c r="S7">
-        <v>0.3496503496503496</v>
+        <v>0.3645833333333333</v>
       </c>
     </row>
     <row r="8" spans="1:19">
@@ -852,19 +852,19 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>0.09195402298850575</v>
+        <v>0.09713024282560706</v>
       </c>
       <c r="C8">
         <v>0</v>
       </c>
       <c r="D8">
-        <v>0.01149425287356322</v>
+        <v>0.01324503311258278</v>
       </c>
       <c r="E8">
         <v>0</v>
       </c>
       <c r="F8">
-        <v>0.06609195402298851</v>
+        <v>0.05739514348785872</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -876,7 +876,7 @@
         <v>0</v>
       </c>
       <c r="J8">
-        <v>0.1264367816091954</v>
+        <v>0.1103752759381898</v>
       </c>
       <c r="K8">
         <v>0</v>
@@ -891,19 +891,19 @@
         <v>0</v>
       </c>
       <c r="O8">
-        <v>0.01149425287356322</v>
+        <v>0.008830022075055188</v>
       </c>
       <c r="P8">
         <v>0</v>
       </c>
       <c r="Q8">
-        <v>0.1867816091954023</v>
+        <v>0.2185430463576159</v>
       </c>
       <c r="R8">
-        <v>0.08908045977011494</v>
+        <v>0.08830022075055188</v>
       </c>
       <c r="S8">
-        <v>0.4166666666666667</v>
+        <v>0.4061810154525387</v>
       </c>
     </row>
     <row r="9" spans="1:19">
@@ -911,7 +911,7 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>0.06172839506172839</v>
+        <v>0.0576923076923077</v>
       </c>
       <c r="C9">
         <v>0</v>
@@ -923,7 +923,7 @@
         <v>0</v>
       </c>
       <c r="F9">
-        <v>0.06172839506172839</v>
+        <v>0.0673076923076923</v>
       </c>
       <c r="G9">
         <v>0</v>
@@ -935,7 +935,7 @@
         <v>0</v>
       </c>
       <c r="J9">
-        <v>0.1172839506172839</v>
+        <v>0.1153846153846154</v>
       </c>
       <c r="K9">
         <v>0</v>
@@ -950,19 +950,19 @@
         <v>0</v>
       </c>
       <c r="O9">
-        <v>0.01851851851851852</v>
+        <v>0.01442307692307692</v>
       </c>
       <c r="P9">
         <v>0</v>
       </c>
       <c r="Q9">
-        <v>0.2345679012345679</v>
+        <v>0.2355769230769231</v>
       </c>
       <c r="R9">
-        <v>0.07407407407407407</v>
+        <v>0.07211538461538461</v>
       </c>
       <c r="S9">
-        <v>0.4320987654320987</v>
+        <v>0.4375</v>
       </c>
     </row>
     <row r="10" spans="1:19">
@@ -970,19 +970,19 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>0.07600950118764846</v>
+        <v>0.08691674290942361</v>
       </c>
       <c r="C10">
         <v>0</v>
       </c>
       <c r="D10">
-        <v>0.02019002375296912</v>
+        <v>0.02195791399817017</v>
       </c>
       <c r="E10">
-        <v>0.002375296912114014</v>
+        <v>0.002744739249771272</v>
       </c>
       <c r="F10">
-        <v>0.0665083135391924</v>
+        <v>0.0677035681610247</v>
       </c>
       <c r="G10">
         <v>0</v>
@@ -994,7 +994,7 @@
         <v>0</v>
       </c>
       <c r="J10">
-        <v>0.1270783847980998</v>
+        <v>0.1189387008234218</v>
       </c>
       <c r="K10">
         <v>0</v>
@@ -1009,19 +1009,19 @@
         <v>0</v>
       </c>
       <c r="O10">
-        <v>0.009501187648456057</v>
+        <v>0.010064043915828</v>
       </c>
       <c r="P10">
         <v>0</v>
       </c>
       <c r="Q10">
-        <v>0.2102137767220903</v>
+        <v>0.2049405306495883</v>
       </c>
       <c r="R10">
-        <v>0.08669833729216152</v>
+        <v>0.08600182982616651</v>
       </c>
       <c r="S10">
-        <v>0.4014251781472684</v>
+        <v>0.4007319304666057</v>
       </c>
     </row>
     <row r="11" spans="1:19">
@@ -1044,7 +1044,7 @@
         <v>0</v>
       </c>
       <c r="G11">
-        <v>0.09865470852017937</v>
+        <v>0.1254355400696864</v>
       </c>
       <c r="H11">
         <v>0</v>
@@ -1053,13 +1053,13 @@
         <v>0</v>
       </c>
       <c r="J11">
-        <v>0.1210762331838565</v>
+        <v>0.1045296167247387</v>
       </c>
       <c r="K11">
-        <v>0.1883408071748879</v>
+        <v>0.2020905923344948</v>
       </c>
       <c r="L11">
-        <v>0.5739910313901345</v>
+        <v>0.554006968641115</v>
       </c>
       <c r="M11">
         <v>0</v>
@@ -1080,7 +1080,7 @@
         <v>0</v>
       </c>
       <c r="S11">
-        <v>0.0179372197309417</v>
+        <v>0.01393728222996516</v>
       </c>
     </row>
     <row r="12" spans="1:19">
@@ -1103,7 +1103,7 @@
         <v>0</v>
       </c>
       <c r="G12">
-        <v>0.7230769230769231</v>
+        <v>0.7345679012345679</v>
       </c>
       <c r="H12">
         <v>0</v>
@@ -1112,13 +1112,13 @@
         <v>0</v>
       </c>
       <c r="J12">
-        <v>0.1538461538461539</v>
+        <v>0.1666666666666667</v>
       </c>
       <c r="K12">
         <v>0</v>
       </c>
       <c r="L12">
-        <v>0.03076923076923077</v>
+        <v>0.02469135802469136</v>
       </c>
       <c r="M12">
         <v>0</v>
@@ -1139,7 +1139,7 @@
         <v>0</v>
       </c>
       <c r="S12">
-        <v>0.09230769230769231</v>
+        <v>0.07407407407407407</v>
       </c>
     </row>
     <row r="13" spans="1:19">
@@ -1162,7 +1162,7 @@
         <v>0</v>
       </c>
       <c r="G13">
-        <v>0.6888888888888889</v>
+        <v>0.6984126984126984</v>
       </c>
       <c r="H13">
         <v>0</v>
@@ -1171,7 +1171,7 @@
         <v>0</v>
       </c>
       <c r="J13">
-        <v>0.2</v>
+        <v>0.1746031746031746</v>
       </c>
       <c r="K13">
         <v>0</v>
@@ -1198,7 +1198,7 @@
         <v>0</v>
       </c>
       <c r="S13">
-        <v>0.1111111111111111</v>
+        <v>0.126984126984127</v>
       </c>
     </row>
     <row r="14" spans="1:19">
@@ -1221,7 +1221,7 @@
         <v>0</v>
       </c>
       <c r="G14">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="H14">
         <v>0</v>
@@ -1257,7 +1257,7 @@
         <v>0</v>
       </c>
       <c r="S14">
-        <v>0</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="15" spans="1:19">
@@ -1277,34 +1277,34 @@
         <v>0</v>
       </c>
       <c r="F15">
-        <v>0.02797202797202797</v>
+        <v>0.02116402116402116</v>
       </c>
       <c r="G15">
         <v>0</v>
       </c>
       <c r="H15">
-        <v>0.1538461538461539</v>
+        <v>0.1746031746031746</v>
       </c>
       <c r="I15">
-        <v>0.1048951048951049</v>
+        <v>0.1005291005291005</v>
       </c>
       <c r="J15">
-        <v>0.3146853146853147</v>
+        <v>0.3174603174603174</v>
       </c>
       <c r="K15">
-        <v>0.08391608391608392</v>
+        <v>0.07936507936507936</v>
       </c>
       <c r="L15">
         <v>0</v>
       </c>
       <c r="M15">
-        <v>0.03496503496503497</v>
+        <v>0.02645502645502645</v>
       </c>
       <c r="N15">
         <v>0</v>
       </c>
       <c r="O15">
-        <v>0.03496503496503497</v>
+        <v>0.03703703703703703</v>
       </c>
       <c r="P15">
         <v>0</v>
@@ -1316,7 +1316,7 @@
         <v>0</v>
       </c>
       <c r="S15">
-        <v>0.2447552447552448</v>
+        <v>0.2433862433862434</v>
       </c>
     </row>
     <row r="16" spans="1:19">
@@ -1336,34 +1336,34 @@
         <v>0</v>
       </c>
       <c r="F16">
-        <v>0.01851851851851852</v>
+        <v>0.01298701298701299</v>
       </c>
       <c r="G16">
         <v>0</v>
       </c>
       <c r="H16">
-        <v>0.1851851851851852</v>
+        <v>0.1818181818181818</v>
       </c>
       <c r="I16">
-        <v>0.07407407407407407</v>
+        <v>0.07792207792207792</v>
       </c>
       <c r="J16">
-        <v>0.4351851851851852</v>
+        <v>0.461038961038961</v>
       </c>
       <c r="K16">
-        <v>0.08333333333333333</v>
+        <v>0.07792207792207792</v>
       </c>
       <c r="L16">
         <v>0</v>
       </c>
       <c r="M16">
-        <v>0.02777777777777778</v>
+        <v>0.02597402597402598</v>
       </c>
       <c r="N16">
-        <v>0.009259259259259259</v>
+        <v>0.006493506493506494</v>
       </c>
       <c r="O16">
-        <v>0.04629629629629629</v>
+        <v>0.03896103896103896</v>
       </c>
       <c r="P16">
         <v>0</v>
@@ -1375,7 +1375,7 @@
         <v>0</v>
       </c>
       <c r="S16">
-        <v>0.1203703703703704</v>
+        <v>0.1168831168831169</v>
       </c>
     </row>
     <row r="17" spans="1:19">
@@ -1395,34 +1395,34 @@
         <v>0</v>
       </c>
       <c r="F17">
-        <v>0.006024096385542169</v>
+        <v>0.011441647597254</v>
       </c>
       <c r="G17">
         <v>0</v>
       </c>
       <c r="H17">
-        <v>0.2198795180722891</v>
+        <v>0.2196796338672769</v>
       </c>
       <c r="I17">
-        <v>0.1024096385542169</v>
+        <v>0.09610983981693363</v>
       </c>
       <c r="J17">
-        <v>0.3614457831325301</v>
+        <v>0.356979405034325</v>
       </c>
       <c r="K17">
-        <v>0.09939759036144578</v>
+        <v>0.09610983981693363</v>
       </c>
       <c r="L17">
         <v>0</v>
       </c>
       <c r="M17">
-        <v>0.02710843373493976</v>
+        <v>0.03661327231121281</v>
       </c>
       <c r="N17">
-        <v>0</v>
+        <v>0.002288329519450801</v>
       </c>
       <c r="O17">
-        <v>0.05120481927710843</v>
+        <v>0.05263157894736842</v>
       </c>
       <c r="P17">
         <v>0</v>
@@ -1434,7 +1434,7 @@
         <v>0</v>
       </c>
       <c r="S17">
-        <v>0.1325301204819277</v>
+        <v>0.1281464530892449</v>
       </c>
     </row>
     <row r="18" spans="1:19">
@@ -1454,34 +1454,34 @@
         <v>0</v>
       </c>
       <c r="F18">
-        <v>0.01418439716312057</v>
+        <v>0.01685393258426966</v>
       </c>
       <c r="G18">
         <v>0</v>
       </c>
       <c r="H18">
-        <v>0.2269503546099291</v>
+        <v>0.2134831460674157</v>
       </c>
       <c r="I18">
-        <v>0.07801418439716312</v>
+        <v>0.07303370786516854</v>
       </c>
       <c r="J18">
-        <v>0.3404255319148936</v>
+        <v>0.3651685393258427</v>
       </c>
       <c r="K18">
-        <v>0.1134751773049645</v>
+        <v>0.1067415730337079</v>
       </c>
       <c r="L18">
         <v>0</v>
       </c>
       <c r="M18">
-        <v>0.03546099290780142</v>
+        <v>0.03932584269662921</v>
       </c>
       <c r="N18">
         <v>0</v>
       </c>
       <c r="O18">
-        <v>0.01418439716312057</v>
+        <v>0.02247191011235955</v>
       </c>
       <c r="P18">
         <v>0</v>
@@ -1493,7 +1493,7 @@
         <v>0</v>
       </c>
       <c r="S18">
-        <v>0.1773049645390071</v>
+        <v>0.1629213483146068</v>
       </c>
     </row>
     <row r="19" spans="1:19">
@@ -1513,34 +1513,34 @@
         <v>0</v>
       </c>
       <c r="F19">
-        <v>0.01153039832285115</v>
+        <v>0.0129136400322841</v>
       </c>
       <c r="G19">
         <v>0</v>
       </c>
       <c r="H19">
-        <v>0.2148846960167715</v>
+        <v>0.2098466505246166</v>
       </c>
       <c r="I19">
-        <v>0.1006289308176101</v>
+        <v>0.1008878127522195</v>
       </c>
       <c r="J19">
-        <v>0.3291404612159329</v>
+        <v>0.3284907183212268</v>
       </c>
       <c r="K19">
-        <v>0.1111111111111111</v>
+        <v>0.1097659402744148</v>
       </c>
       <c r="L19">
         <v>0</v>
       </c>
       <c r="M19">
-        <v>0.02410901467505241</v>
+        <v>0.02502017756255044</v>
       </c>
       <c r="N19">
-        <v>0</v>
+        <v>0.0008071025020177562</v>
       </c>
       <c r="O19">
-        <v>0.07547169811320754</v>
+        <v>0.07667473769168684</v>
       </c>
       <c r="P19">
         <v>0</v>
@@ -1552,7 +1552,7 @@
         <v>0</v>
       </c>
       <c r="S19">
-        <v>0.1331236897274633</v>
+        <v>0.1355932203389831</v>
       </c>
     </row>
   </sheetData>

--- a/team_specific_matrix/Fla. Atlantic_B.xlsx
+++ b/team_specific_matrix/Fla. Atlantic_B.xlsx
@@ -498,10 +498,10 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0.165938864628821</v>
+        <v>0.1686746987951807</v>
       </c>
       <c r="C2">
-        <v>0.5938864628820961</v>
+        <v>0.5863453815261044</v>
       </c>
       <c r="D2">
         <v>0</v>
@@ -522,7 +522,7 @@
         <v>0</v>
       </c>
       <c r="J2">
-        <v>0.008733624454148471</v>
+        <v>0.01204819277108434</v>
       </c>
       <c r="K2">
         <v>0</v>
@@ -540,7 +540,7 @@
         <v>0</v>
       </c>
       <c r="P2">
-        <v>0.1091703056768559</v>
+        <v>0.1124497991967871</v>
       </c>
       <c r="Q2">
         <v>0</v>
@@ -549,7 +549,7 @@
         <v>0</v>
       </c>
       <c r="S2">
-        <v>0.1222707423580786</v>
+        <v>0.1204819277108434</v>
       </c>
     </row>
     <row r="3" spans="1:19">
@@ -557,10 +557,10 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0.01398601398601399</v>
+        <v>0.01298701298701299</v>
       </c>
       <c r="C3">
-        <v>0.03496503496503497</v>
+        <v>0.03246753246753246</v>
       </c>
       <c r="D3">
         <v>0</v>
@@ -581,7 +581,7 @@
         <v>0</v>
       </c>
       <c r="J3">
-        <v>0.02797202797202797</v>
+        <v>0.02597402597402598</v>
       </c>
       <c r="K3">
         <v>0</v>
@@ -599,7 +599,7 @@
         <v>0</v>
       </c>
       <c r="P3">
-        <v>0.7412587412587412</v>
+        <v>0.7337662337662337</v>
       </c>
       <c r="Q3">
         <v>0</v>
@@ -608,7 +608,7 @@
         <v>0</v>
       </c>
       <c r="S3">
-        <v>0.1818181818181818</v>
+        <v>0.1948051948051948</v>
       </c>
     </row>
     <row r="4" spans="1:19">
@@ -640,7 +640,7 @@
         <v>0</v>
       </c>
       <c r="J4">
-        <v>0.02702702702702703</v>
+        <v>0.04545454545454546</v>
       </c>
       <c r="K4">
         <v>0</v>
@@ -658,7 +658,7 @@
         <v>0</v>
       </c>
       <c r="P4">
-        <v>0.7027027027027027</v>
+        <v>0.6818181818181818</v>
       </c>
       <c r="Q4">
         <v>0</v>
@@ -667,7 +667,7 @@
         <v>0</v>
       </c>
       <c r="S4">
-        <v>0.2702702702702703</v>
+        <v>0.2727272727272727</v>
       </c>
     </row>
     <row r="5" spans="1:19">
@@ -734,19 +734,19 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.05851063829787234</v>
+        <v>0.05882352941176471</v>
       </c>
       <c r="C6">
         <v>0</v>
       </c>
       <c r="D6">
-        <v>0.02659574468085106</v>
+        <v>0.02450980392156863</v>
       </c>
       <c r="E6">
         <v>0</v>
       </c>
       <c r="F6">
-        <v>0.06382978723404255</v>
+        <v>0.06862745098039216</v>
       </c>
       <c r="G6">
         <v>0</v>
@@ -758,7 +758,7 @@
         <v>0</v>
       </c>
       <c r="J6">
-        <v>0.25</v>
+        <v>0.2450980392156863</v>
       </c>
       <c r="K6">
         <v>0</v>
@@ -773,19 +773,19 @@
         <v>0</v>
       </c>
       <c r="O6">
-        <v>0.02659574468085106</v>
+        <v>0.02941176470588235</v>
       </c>
       <c r="P6">
         <v>0</v>
       </c>
       <c r="Q6">
-        <v>0.1968085106382979</v>
+        <v>0.2058823529411765</v>
       </c>
       <c r="R6">
-        <v>0.05851063829787234</v>
+        <v>0.05392156862745098</v>
       </c>
       <c r="S6">
-        <v>0.3191489361702128</v>
+        <v>0.3137254901960784</v>
       </c>
     </row>
     <row r="7" spans="1:19">
@@ -793,19 +793,19 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.1197916666666667</v>
+        <v>0.1100478468899522</v>
       </c>
       <c r="C7">
         <v>0</v>
       </c>
       <c r="D7">
-        <v>0.005208333333333333</v>
+        <v>0.01913875598086124</v>
       </c>
       <c r="E7">
         <v>0</v>
       </c>
       <c r="F7">
-        <v>0.05208333333333334</v>
+        <v>0.04784688995215311</v>
       </c>
       <c r="G7">
         <v>0</v>
@@ -817,7 +817,7 @@
         <v>0</v>
       </c>
       <c r="J7">
-        <v>0.171875</v>
+        <v>0.1674641148325359</v>
       </c>
       <c r="K7">
         <v>0</v>
@@ -832,19 +832,19 @@
         <v>0</v>
       </c>
       <c r="O7">
-        <v>0.03125</v>
+        <v>0.02870813397129187</v>
       </c>
       <c r="P7">
         <v>0</v>
       </c>
       <c r="Q7">
-        <v>0.1614583333333333</v>
+        <v>0.1531100478468899</v>
       </c>
       <c r="R7">
-        <v>0.09375</v>
+        <v>0.09090909090909091</v>
       </c>
       <c r="S7">
-        <v>0.3645833333333333</v>
+        <v>0.3827751196172249</v>
       </c>
     </row>
     <row r="8" spans="1:19">
@@ -852,19 +852,19 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>0.09713024282560706</v>
+        <v>0.09611451942740286</v>
       </c>
       <c r="C8">
         <v>0</v>
       </c>
       <c r="D8">
-        <v>0.01324503311258278</v>
+        <v>0.01431492842535787</v>
       </c>
       <c r="E8">
         <v>0</v>
       </c>
       <c r="F8">
-        <v>0.05739514348785872</v>
+        <v>0.05725971370143149</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -876,7 +876,7 @@
         <v>0</v>
       </c>
       <c r="J8">
-        <v>0.1103752759381898</v>
+        <v>0.114519427402863</v>
       </c>
       <c r="K8">
         <v>0</v>
@@ -891,19 +891,19 @@
         <v>0</v>
       </c>
       <c r="O8">
-        <v>0.008830022075055188</v>
+        <v>0.01022494887525562</v>
       </c>
       <c r="P8">
         <v>0</v>
       </c>
       <c r="Q8">
-        <v>0.2185430463576159</v>
+        <v>0.2208588957055215</v>
       </c>
       <c r="R8">
-        <v>0.08830022075055188</v>
+        <v>0.08384458077709611</v>
       </c>
       <c r="S8">
-        <v>0.4061810154525387</v>
+        <v>0.4028629856850716</v>
       </c>
     </row>
     <row r="9" spans="1:19">
@@ -911,7 +911,7 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>0.0576923076923077</v>
+        <v>0.05405405405405406</v>
       </c>
       <c r="C9">
         <v>0</v>
@@ -923,7 +923,7 @@
         <v>0</v>
       </c>
       <c r="F9">
-        <v>0.0673076923076923</v>
+        <v>0.06756756756756757</v>
       </c>
       <c r="G9">
         <v>0</v>
@@ -935,7 +935,7 @@
         <v>0</v>
       </c>
       <c r="J9">
-        <v>0.1153846153846154</v>
+        <v>0.1171171171171171</v>
       </c>
       <c r="K9">
         <v>0</v>
@@ -950,19 +950,19 @@
         <v>0</v>
       </c>
       <c r="O9">
-        <v>0.01442307692307692</v>
+        <v>0.01351351351351351</v>
       </c>
       <c r="P9">
         <v>0</v>
       </c>
       <c r="Q9">
-        <v>0.2355769230769231</v>
+        <v>0.2297297297297297</v>
       </c>
       <c r="R9">
-        <v>0.07211538461538461</v>
+        <v>0.06756756756756757</v>
       </c>
       <c r="S9">
-        <v>0.4375</v>
+        <v>0.4504504504504505</v>
       </c>
     </row>
     <row r="10" spans="1:19">
@@ -970,19 +970,19 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>0.08691674290942361</v>
+        <v>0.08845829823083404</v>
       </c>
       <c r="C10">
         <v>0</v>
       </c>
       <c r="D10">
-        <v>0.02195791399817017</v>
+        <v>0.02358887952822241</v>
       </c>
       <c r="E10">
-        <v>0.002744739249771272</v>
+        <v>0.003369839932603201</v>
       </c>
       <c r="F10">
-        <v>0.0677035681610247</v>
+        <v>0.06908171861836562</v>
       </c>
       <c r="G10">
         <v>0</v>
@@ -994,7 +994,7 @@
         <v>0</v>
       </c>
       <c r="J10">
-        <v>0.1189387008234218</v>
+        <v>0.117944397641112</v>
       </c>
       <c r="K10">
         <v>0</v>
@@ -1009,19 +1009,19 @@
         <v>0</v>
       </c>
       <c r="O10">
-        <v>0.010064043915828</v>
+        <v>0.0109519797809604</v>
       </c>
       <c r="P10">
         <v>0</v>
       </c>
       <c r="Q10">
-        <v>0.2049405306495883</v>
+        <v>0.2097725358045493</v>
       </c>
       <c r="R10">
-        <v>0.08600182982616651</v>
+        <v>0.08340353833192923</v>
       </c>
       <c r="S10">
-        <v>0.4007319304666057</v>
+        <v>0.3934288121314238</v>
       </c>
     </row>
     <row r="11" spans="1:19">
@@ -1044,7 +1044,7 @@
         <v>0</v>
       </c>
       <c r="G11">
-        <v>0.1254355400696864</v>
+        <v>0.1354838709677419</v>
       </c>
       <c r="H11">
         <v>0</v>
@@ -1053,13 +1053,13 @@
         <v>0</v>
       </c>
       <c r="J11">
-        <v>0.1045296167247387</v>
+        <v>0.09677419354838709</v>
       </c>
       <c r="K11">
-        <v>0.2020905923344948</v>
+        <v>0.2032258064516129</v>
       </c>
       <c r="L11">
-        <v>0.554006968641115</v>
+        <v>0.5483870967741935</v>
       </c>
       <c r="M11">
         <v>0</v>
@@ -1080,7 +1080,7 @@
         <v>0</v>
       </c>
       <c r="S11">
-        <v>0.01393728222996516</v>
+        <v>0.01612903225806452</v>
       </c>
     </row>
     <row r="12" spans="1:19">
@@ -1103,7 +1103,7 @@
         <v>0</v>
       </c>
       <c r="G12">
-        <v>0.7345679012345679</v>
+        <v>0.7428571428571429</v>
       </c>
       <c r="H12">
         <v>0</v>
@@ -1112,13 +1112,13 @@
         <v>0</v>
       </c>
       <c r="J12">
-        <v>0.1666666666666667</v>
+        <v>0.16</v>
       </c>
       <c r="K12">
-        <v>0</v>
+        <v>0.005714285714285714</v>
       </c>
       <c r="L12">
-        <v>0.02469135802469136</v>
+        <v>0.02285714285714286</v>
       </c>
       <c r="M12">
         <v>0</v>
@@ -1139,7 +1139,7 @@
         <v>0</v>
       </c>
       <c r="S12">
-        <v>0.07407407407407407</v>
+        <v>0.06857142857142857</v>
       </c>
     </row>
     <row r="13" spans="1:19">
@@ -1162,7 +1162,7 @@
         <v>0</v>
       </c>
       <c r="G13">
-        <v>0.6984126984126984</v>
+        <v>0.6818181818181818</v>
       </c>
       <c r="H13">
         <v>0</v>
@@ -1171,7 +1171,7 @@
         <v>0</v>
       </c>
       <c r="J13">
-        <v>0.1746031746031746</v>
+        <v>0.1818181818181818</v>
       </c>
       <c r="K13">
         <v>0</v>
@@ -1198,7 +1198,7 @@
         <v>0</v>
       </c>
       <c r="S13">
-        <v>0.126984126984127</v>
+        <v>0.1363636363636364</v>
       </c>
     </row>
     <row r="14" spans="1:19">
@@ -1277,34 +1277,34 @@
         <v>0</v>
       </c>
       <c r="F15">
-        <v>0.02116402116402116</v>
+        <v>0.01923076923076923</v>
       </c>
       <c r="G15">
         <v>0</v>
       </c>
       <c r="H15">
-        <v>0.1746031746031746</v>
+        <v>0.1682692307692308</v>
       </c>
       <c r="I15">
-        <v>0.1005291005291005</v>
+        <v>0.1009615384615385</v>
       </c>
       <c r="J15">
-        <v>0.3174603174603174</v>
+        <v>0.3173076923076923</v>
       </c>
       <c r="K15">
-        <v>0.07936507936507936</v>
+        <v>0.07692307692307693</v>
       </c>
       <c r="L15">
         <v>0</v>
       </c>
       <c r="M15">
-        <v>0.02645502645502645</v>
+        <v>0.02403846153846154</v>
       </c>
       <c r="N15">
         <v>0</v>
       </c>
       <c r="O15">
-        <v>0.03703703703703703</v>
+        <v>0.04807692307692308</v>
       </c>
       <c r="P15">
         <v>0</v>
@@ -1316,7 +1316,7 @@
         <v>0</v>
       </c>
       <c r="S15">
-        <v>0.2433862433862434</v>
+        <v>0.2451923076923077</v>
       </c>
     </row>
     <row r="16" spans="1:19">
@@ -1336,34 +1336,34 @@
         <v>0</v>
       </c>
       <c r="F16">
-        <v>0.01298701298701299</v>
+        <v>0.0119047619047619</v>
       </c>
       <c r="G16">
         <v>0</v>
       </c>
       <c r="H16">
-        <v>0.1818181818181818</v>
+        <v>0.1785714285714286</v>
       </c>
       <c r="I16">
-        <v>0.07792207792207792</v>
+        <v>0.07738095238095238</v>
       </c>
       <c r="J16">
-        <v>0.461038961038961</v>
+        <v>0.4523809523809524</v>
       </c>
       <c r="K16">
-        <v>0.07792207792207792</v>
+        <v>0.08333333333333333</v>
       </c>
       <c r="L16">
         <v>0</v>
       </c>
       <c r="M16">
-        <v>0.02597402597402598</v>
+        <v>0.02976190476190476</v>
       </c>
       <c r="N16">
-        <v>0.006493506493506494</v>
+        <v>0.005952380952380952</v>
       </c>
       <c r="O16">
-        <v>0.03896103896103896</v>
+        <v>0.04761904761904762</v>
       </c>
       <c r="P16">
         <v>0</v>
@@ -1375,7 +1375,7 @@
         <v>0</v>
       </c>
       <c r="S16">
-        <v>0.1168831168831169</v>
+        <v>0.1130952380952381</v>
       </c>
     </row>
     <row r="17" spans="1:19">
@@ -1395,34 +1395,34 @@
         <v>0</v>
       </c>
       <c r="F17">
-        <v>0.011441647597254</v>
+        <v>0.01041666666666667</v>
       </c>
       <c r="G17">
         <v>0</v>
       </c>
       <c r="H17">
-        <v>0.2196796338672769</v>
+        <v>0.21875</v>
       </c>
       <c r="I17">
-        <v>0.09610983981693363</v>
+        <v>0.09166666666666666</v>
       </c>
       <c r="J17">
-        <v>0.356979405034325</v>
+        <v>0.3583333333333333</v>
       </c>
       <c r="K17">
-        <v>0.09610983981693363</v>
+        <v>0.1020833333333333</v>
       </c>
       <c r="L17">
         <v>0</v>
       </c>
       <c r="M17">
-        <v>0.03661327231121281</v>
+        <v>0.0375</v>
       </c>
       <c r="N17">
-        <v>0.002288329519450801</v>
+        <v>0.002083333333333333</v>
       </c>
       <c r="O17">
-        <v>0.05263157894736842</v>
+        <v>0.05625</v>
       </c>
       <c r="P17">
         <v>0</v>
@@ -1434,7 +1434,7 @@
         <v>0</v>
       </c>
       <c r="S17">
-        <v>0.1281464530892449</v>
+        <v>0.1229166666666667</v>
       </c>
     </row>
     <row r="18" spans="1:19">
@@ -1454,34 +1454,34 @@
         <v>0</v>
       </c>
       <c r="F18">
-        <v>0.01685393258426966</v>
+        <v>0.01621621621621622</v>
       </c>
       <c r="G18">
         <v>0</v>
       </c>
       <c r="H18">
-        <v>0.2134831460674157</v>
+        <v>0.2162162162162162</v>
       </c>
       <c r="I18">
-        <v>0.07303370786516854</v>
+        <v>0.07567567567567568</v>
       </c>
       <c r="J18">
-        <v>0.3651685393258427</v>
+        <v>0.3621621621621622</v>
       </c>
       <c r="K18">
-        <v>0.1067415730337079</v>
+        <v>0.1027027027027027</v>
       </c>
       <c r="L18">
         <v>0</v>
       </c>
       <c r="M18">
-        <v>0.03932584269662921</v>
+        <v>0.03783783783783784</v>
       </c>
       <c r="N18">
         <v>0</v>
       </c>
       <c r="O18">
-        <v>0.02247191011235955</v>
+        <v>0.02162162162162162</v>
       </c>
       <c r="P18">
         <v>0</v>
@@ -1493,7 +1493,7 @@
         <v>0</v>
       </c>
       <c r="S18">
-        <v>0.1629213483146068</v>
+        <v>0.1675675675675676</v>
       </c>
     </row>
     <row r="19" spans="1:19">
@@ -1513,34 +1513,34 @@
         <v>0</v>
       </c>
       <c r="F19">
-        <v>0.0129136400322841</v>
+        <v>0.01276276276276276</v>
       </c>
       <c r="G19">
         <v>0</v>
       </c>
       <c r="H19">
-        <v>0.2098466505246166</v>
+        <v>0.210960960960961</v>
       </c>
       <c r="I19">
-        <v>0.1008878127522195</v>
+        <v>0.09984984984984985</v>
       </c>
       <c r="J19">
-        <v>0.3284907183212268</v>
+        <v>0.3348348348348348</v>
       </c>
       <c r="K19">
-        <v>0.1097659402744148</v>
+        <v>0.1066066066066066</v>
       </c>
       <c r="L19">
         <v>0</v>
       </c>
       <c r="M19">
-        <v>0.02502017756255044</v>
+        <v>0.02402402402402402</v>
       </c>
       <c r="N19">
-        <v>0.0008071025020177562</v>
+        <v>0.0007507507507507507</v>
       </c>
       <c r="O19">
-        <v>0.07667473769168684</v>
+        <v>0.07507507507507508</v>
       </c>
       <c r="P19">
         <v>0</v>
@@ -1552,7 +1552,7 @@
         <v>0</v>
       </c>
       <c r="S19">
-        <v>0.1355932203389831</v>
+        <v>0.1351351351351351</v>
       </c>
     </row>
   </sheetData>

--- a/team_specific_matrix/Fla. Atlantic_B.xlsx
+++ b/team_specific_matrix/Fla. Atlantic_B.xlsx
@@ -498,10 +498,10 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0.1686746987951807</v>
+        <v>0.1666666666666667</v>
       </c>
       <c r="C2">
-        <v>0.5863453815261044</v>
+        <v>0.5930232558139535</v>
       </c>
       <c r="D2">
         <v>0</v>
@@ -522,7 +522,7 @@
         <v>0</v>
       </c>
       <c r="J2">
-        <v>0.01204819277108434</v>
+        <v>0.01162790697674419</v>
       </c>
       <c r="K2">
         <v>0</v>
@@ -540,7 +540,7 @@
         <v>0</v>
       </c>
       <c r="P2">
-        <v>0.1124497991967871</v>
+        <v>0.1124031007751938</v>
       </c>
       <c r="Q2">
         <v>0</v>
@@ -549,7 +549,7 @@
         <v>0</v>
       </c>
       <c r="S2">
-        <v>0.1204819277108434</v>
+        <v>0.1162790697674419</v>
       </c>
     </row>
     <row r="3" spans="1:19">
@@ -557,10 +557,10 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0.01298701298701299</v>
+        <v>0.01226993865030675</v>
       </c>
       <c r="C3">
-        <v>0.03246753246753246</v>
+        <v>0.04294478527607362</v>
       </c>
       <c r="D3">
         <v>0</v>
@@ -581,7 +581,7 @@
         <v>0</v>
       </c>
       <c r="J3">
-        <v>0.02597402597402598</v>
+        <v>0.0245398773006135</v>
       </c>
       <c r="K3">
         <v>0</v>
@@ -599,7 +599,7 @@
         <v>0</v>
       </c>
       <c r="P3">
-        <v>0.7337662337662337</v>
+        <v>0.7361963190184049</v>
       </c>
       <c r="Q3">
         <v>0</v>
@@ -608,7 +608,7 @@
         <v>0</v>
       </c>
       <c r="S3">
-        <v>0.1948051948051948</v>
+        <v>0.1840490797546012</v>
       </c>
     </row>
     <row r="4" spans="1:19">
@@ -640,7 +640,7 @@
         <v>0</v>
       </c>
       <c r="J4">
-        <v>0.04545454545454546</v>
+        <v>0.04444444444444445</v>
       </c>
       <c r="K4">
         <v>0</v>
@@ -658,7 +658,7 @@
         <v>0</v>
       </c>
       <c r="P4">
-        <v>0.6818181818181818</v>
+        <v>0.6888888888888889</v>
       </c>
       <c r="Q4">
         <v>0</v>
@@ -667,7 +667,7 @@
         <v>0</v>
       </c>
       <c r="S4">
-        <v>0.2727272727272727</v>
+        <v>0.2666666666666667</v>
       </c>
     </row>
     <row r="5" spans="1:19">
@@ -734,19 +734,19 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.05882352941176471</v>
+        <v>0.05607476635514019</v>
       </c>
       <c r="C6">
         <v>0</v>
       </c>
       <c r="D6">
-        <v>0.02450980392156863</v>
+        <v>0.02336448598130841</v>
       </c>
       <c r="E6">
         <v>0</v>
       </c>
       <c r="F6">
-        <v>0.06862745098039216</v>
+        <v>0.06542056074766354</v>
       </c>
       <c r="G6">
         <v>0</v>
@@ -758,7 +758,7 @@
         <v>0</v>
       </c>
       <c r="J6">
-        <v>0.2450980392156863</v>
+        <v>0.2570093457943925</v>
       </c>
       <c r="K6">
         <v>0</v>
@@ -773,19 +773,19 @@
         <v>0</v>
       </c>
       <c r="O6">
-        <v>0.02941176470588235</v>
+        <v>0.03271028037383177</v>
       </c>
       <c r="P6">
         <v>0</v>
       </c>
       <c r="Q6">
-        <v>0.2058823529411765</v>
+        <v>0.2009345794392523</v>
       </c>
       <c r="R6">
-        <v>0.05392156862745098</v>
+        <v>0.0514018691588785</v>
       </c>
       <c r="S6">
-        <v>0.3137254901960784</v>
+        <v>0.3130841121495327</v>
       </c>
     </row>
     <row r="7" spans="1:19">
@@ -793,19 +793,19 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.1100478468899522</v>
+        <v>0.1136363636363636</v>
       </c>
       <c r="C7">
         <v>0</v>
       </c>
       <c r="D7">
-        <v>0.01913875598086124</v>
+        <v>0.01818181818181818</v>
       </c>
       <c r="E7">
         <v>0</v>
       </c>
       <c r="F7">
-        <v>0.04784688995215311</v>
+        <v>0.05</v>
       </c>
       <c r="G7">
         <v>0</v>
@@ -817,7 +817,7 @@
         <v>0</v>
       </c>
       <c r="J7">
-        <v>0.1674641148325359</v>
+        <v>0.1590909090909091</v>
       </c>
       <c r="K7">
         <v>0</v>
@@ -832,19 +832,19 @@
         <v>0</v>
       </c>
       <c r="O7">
-        <v>0.02870813397129187</v>
+        <v>0.02727272727272727</v>
       </c>
       <c r="P7">
         <v>0</v>
       </c>
       <c r="Q7">
-        <v>0.1531100478468899</v>
+        <v>0.1636363636363636</v>
       </c>
       <c r="R7">
         <v>0.09090909090909091</v>
       </c>
       <c r="S7">
-        <v>0.3827751196172249</v>
+        <v>0.3772727272727273</v>
       </c>
     </row>
     <row r="8" spans="1:19">
@@ -852,19 +852,19 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>0.09611451942740286</v>
+        <v>0.09504950495049505</v>
       </c>
       <c r="C8">
         <v>0</v>
       </c>
       <c r="D8">
-        <v>0.01431492842535787</v>
+        <v>0.01584158415841584</v>
       </c>
       <c r="E8">
         <v>0</v>
       </c>
       <c r="F8">
-        <v>0.05725971370143149</v>
+        <v>0.06138613861386139</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -876,7 +876,7 @@
         <v>0</v>
       </c>
       <c r="J8">
-        <v>0.114519427402863</v>
+        <v>0.1148514851485149</v>
       </c>
       <c r="K8">
         <v>0</v>
@@ -891,19 +891,19 @@
         <v>0</v>
       </c>
       <c r="O8">
-        <v>0.01022494887525562</v>
+        <v>0.01188118811881188</v>
       </c>
       <c r="P8">
         <v>0</v>
       </c>
       <c r="Q8">
-        <v>0.2208588957055215</v>
+        <v>0.2198019801980198</v>
       </c>
       <c r="R8">
-        <v>0.08384458077709611</v>
+        <v>0.08514851485148515</v>
       </c>
       <c r="S8">
-        <v>0.4028629856850716</v>
+        <v>0.3960396039603961</v>
       </c>
     </row>
     <row r="9" spans="1:19">
@@ -911,7 +911,7 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>0.05405405405405406</v>
+        <v>0.05676855895196507</v>
       </c>
       <c r="C9">
         <v>0</v>
@@ -923,7 +923,7 @@
         <v>0</v>
       </c>
       <c r="F9">
-        <v>0.06756756756756757</v>
+        <v>0.06550218340611354</v>
       </c>
       <c r="G9">
         <v>0</v>
@@ -935,7 +935,7 @@
         <v>0</v>
       </c>
       <c r="J9">
-        <v>0.1171171171171171</v>
+        <v>0.1135371179039301</v>
       </c>
       <c r="K9">
         <v>0</v>
@@ -950,19 +950,19 @@
         <v>0</v>
       </c>
       <c r="O9">
-        <v>0.01351351351351351</v>
+        <v>0.01310043668122271</v>
       </c>
       <c r="P9">
         <v>0</v>
       </c>
       <c r="Q9">
-        <v>0.2297297297297297</v>
+        <v>0.222707423580786</v>
       </c>
       <c r="R9">
-        <v>0.06756756756756757</v>
+        <v>0.06550218340611354</v>
       </c>
       <c r="S9">
-        <v>0.4504504504504505</v>
+        <v>0.462882096069869</v>
       </c>
     </row>
     <row r="10" spans="1:19">
@@ -970,19 +970,19 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>0.08845829823083404</v>
+        <v>0.08890701468189233</v>
       </c>
       <c r="C10">
         <v>0</v>
       </c>
       <c r="D10">
-        <v>0.02358887952822241</v>
+        <v>0.02365415986949429</v>
       </c>
       <c r="E10">
-        <v>0.003369839932603201</v>
+        <v>0.003262642740619902</v>
       </c>
       <c r="F10">
-        <v>0.06908171861836562</v>
+        <v>0.06933115823817292</v>
       </c>
       <c r="G10">
         <v>0</v>
@@ -994,7 +994,7 @@
         <v>0</v>
       </c>
       <c r="J10">
-        <v>0.117944397641112</v>
+        <v>0.1158238172920065</v>
       </c>
       <c r="K10">
         <v>0</v>
@@ -1009,19 +1009,19 @@
         <v>0</v>
       </c>
       <c r="O10">
-        <v>0.0109519797809604</v>
+        <v>0.01141924959216966</v>
       </c>
       <c r="P10">
         <v>0</v>
       </c>
       <c r="Q10">
-        <v>0.2097725358045493</v>
+        <v>0.2104404567699837</v>
       </c>
       <c r="R10">
-        <v>0.08340353833192923</v>
+        <v>0.08319738988580751</v>
       </c>
       <c r="S10">
-        <v>0.3934288121314238</v>
+        <v>0.3939641109298532</v>
       </c>
     </row>
     <row r="11" spans="1:19">
@@ -1044,7 +1044,7 @@
         <v>0</v>
       </c>
       <c r="G11">
-        <v>0.1354838709677419</v>
+        <v>0.1314984709480122</v>
       </c>
       <c r="H11">
         <v>0</v>
@@ -1053,13 +1053,13 @@
         <v>0</v>
       </c>
       <c r="J11">
-        <v>0.09677419354838709</v>
+        <v>0.09480122324159021</v>
       </c>
       <c r="K11">
-        <v>0.2032258064516129</v>
+        <v>0.2048929663608563</v>
       </c>
       <c r="L11">
-        <v>0.5483870967741935</v>
+        <v>0.5504587155963303</v>
       </c>
       <c r="M11">
         <v>0</v>
@@ -1080,7 +1080,7 @@
         <v>0</v>
       </c>
       <c r="S11">
-        <v>0.01612903225806452</v>
+        <v>0.01834862385321101</v>
       </c>
     </row>
     <row r="12" spans="1:19">
@@ -1103,7 +1103,7 @@
         <v>0</v>
       </c>
       <c r="G12">
-        <v>0.7428571428571429</v>
+        <v>0.7473118279569892</v>
       </c>
       <c r="H12">
         <v>0</v>
@@ -1112,13 +1112,13 @@
         <v>0</v>
       </c>
       <c r="J12">
-        <v>0.16</v>
+        <v>0.1559139784946237</v>
       </c>
       <c r="K12">
-        <v>0.005714285714285714</v>
+        <v>0.005376344086021506</v>
       </c>
       <c r="L12">
-        <v>0.02285714285714286</v>
+        <v>0.02688172043010753</v>
       </c>
       <c r="M12">
         <v>0</v>
@@ -1139,7 +1139,7 @@
         <v>0</v>
       </c>
       <c r="S12">
-        <v>0.06857142857142857</v>
+        <v>0.06451612903225806</v>
       </c>
     </row>
     <row r="13" spans="1:19">
@@ -1162,7 +1162,7 @@
         <v>0</v>
       </c>
       <c r="G13">
-        <v>0.6818181818181818</v>
+        <v>0.6911764705882353</v>
       </c>
       <c r="H13">
         <v>0</v>
@@ -1171,7 +1171,7 @@
         <v>0</v>
       </c>
       <c r="J13">
-        <v>0.1818181818181818</v>
+        <v>0.1764705882352941</v>
       </c>
       <c r="K13">
         <v>0</v>
@@ -1198,7 +1198,7 @@
         <v>0</v>
       </c>
       <c r="S13">
-        <v>0.1363636363636364</v>
+        <v>0.1323529411764706</v>
       </c>
     </row>
     <row r="14" spans="1:19">
@@ -1277,34 +1277,34 @@
         <v>0</v>
       </c>
       <c r="F15">
-        <v>0.01923076923076923</v>
+        <v>0.0186046511627907</v>
       </c>
       <c r="G15">
         <v>0</v>
       </c>
       <c r="H15">
-        <v>0.1682692307692308</v>
+        <v>0.1674418604651163</v>
       </c>
       <c r="I15">
-        <v>0.1009615384615385</v>
+        <v>0.09767441860465116</v>
       </c>
       <c r="J15">
-        <v>0.3173076923076923</v>
+        <v>0.3209302325581395</v>
       </c>
       <c r="K15">
-        <v>0.07692307692307693</v>
+        <v>0.07441860465116279</v>
       </c>
       <c r="L15">
         <v>0</v>
       </c>
       <c r="M15">
-        <v>0.02403846153846154</v>
+        <v>0.02325581395348837</v>
       </c>
       <c r="N15">
         <v>0</v>
       </c>
       <c r="O15">
-        <v>0.04807692307692308</v>
+        <v>0.04651162790697674</v>
       </c>
       <c r="P15">
         <v>0</v>
@@ -1316,7 +1316,7 @@
         <v>0</v>
       </c>
       <c r="S15">
-        <v>0.2451923076923077</v>
+        <v>0.2511627906976744</v>
       </c>
     </row>
     <row r="16" spans="1:19">
@@ -1336,34 +1336,34 @@
         <v>0</v>
       </c>
       <c r="F16">
-        <v>0.0119047619047619</v>
+        <v>0.01129943502824859</v>
       </c>
       <c r="G16">
         <v>0</v>
       </c>
       <c r="H16">
-        <v>0.1785714285714286</v>
+        <v>0.1864406779661017</v>
       </c>
       <c r="I16">
-        <v>0.07738095238095238</v>
+        <v>0.07344632768361582</v>
       </c>
       <c r="J16">
-        <v>0.4523809523809524</v>
+        <v>0.4463276836158192</v>
       </c>
       <c r="K16">
-        <v>0.08333333333333333</v>
+        <v>0.0903954802259887</v>
       </c>
       <c r="L16">
         <v>0</v>
       </c>
       <c r="M16">
-        <v>0.02976190476190476</v>
+        <v>0.02824858757062147</v>
       </c>
       <c r="N16">
-        <v>0.005952380952380952</v>
+        <v>0.005649717514124294</v>
       </c>
       <c r="O16">
-        <v>0.04761904761904762</v>
+        <v>0.05084745762711865</v>
       </c>
       <c r="P16">
         <v>0</v>
@@ -1375,7 +1375,7 @@
         <v>0</v>
       </c>
       <c r="S16">
-        <v>0.1130952380952381</v>
+        <v>0.1073446327683616</v>
       </c>
     </row>
     <row r="17" spans="1:19">
@@ -1395,34 +1395,34 @@
         <v>0</v>
       </c>
       <c r="F17">
-        <v>0.01041666666666667</v>
+        <v>0.01006036217303823</v>
       </c>
       <c r="G17">
         <v>0</v>
       </c>
       <c r="H17">
-        <v>0.21875</v>
+        <v>0.2173038229376258</v>
       </c>
       <c r="I17">
-        <v>0.09166666666666666</v>
+        <v>0.08853118712273642</v>
       </c>
       <c r="J17">
-        <v>0.3583333333333333</v>
+        <v>0.358148893360161</v>
       </c>
       <c r="K17">
-        <v>0.1020833333333333</v>
+        <v>0.1106639839034205</v>
       </c>
       <c r="L17">
         <v>0</v>
       </c>
       <c r="M17">
-        <v>0.0375</v>
+        <v>0.03621730382293763</v>
       </c>
       <c r="N17">
-        <v>0.002083333333333333</v>
+        <v>0.002012072434607646</v>
       </c>
       <c r="O17">
-        <v>0.05625</v>
+        <v>0.05432595573440644</v>
       </c>
       <c r="P17">
         <v>0</v>
@@ -1434,7 +1434,7 @@
         <v>0</v>
       </c>
       <c r="S17">
-        <v>0.1229166666666667</v>
+        <v>0.1227364185110664</v>
       </c>
     </row>
     <row r="18" spans="1:19">
@@ -1454,34 +1454,34 @@
         <v>0</v>
       </c>
       <c r="F18">
-        <v>0.01621621621621622</v>
+        <v>0.02094240837696335</v>
       </c>
       <c r="G18">
         <v>0</v>
       </c>
       <c r="H18">
-        <v>0.2162162162162162</v>
+        <v>0.2198952879581152</v>
       </c>
       <c r="I18">
-        <v>0.07567567567567568</v>
+        <v>0.07853403141361257</v>
       </c>
       <c r="J18">
-        <v>0.3621621621621622</v>
+        <v>0.356020942408377</v>
       </c>
       <c r="K18">
-        <v>0.1027027027027027</v>
+        <v>0.1047120418848168</v>
       </c>
       <c r="L18">
         <v>0</v>
       </c>
       <c r="M18">
-        <v>0.03783783783783784</v>
+        <v>0.03664921465968586</v>
       </c>
       <c r="N18">
         <v>0</v>
       </c>
       <c r="O18">
-        <v>0.02162162162162162</v>
+        <v>0.02094240837696335</v>
       </c>
       <c r="P18">
         <v>0</v>
@@ -1493,7 +1493,7 @@
         <v>0</v>
       </c>
       <c r="S18">
-        <v>0.1675675675675676</v>
+        <v>0.162303664921466</v>
       </c>
     </row>
     <row r="19" spans="1:19">
@@ -1513,34 +1513,34 @@
         <v>0</v>
       </c>
       <c r="F19">
-        <v>0.01276276276276276</v>
+        <v>0.01312910284463895</v>
       </c>
       <c r="G19">
         <v>0</v>
       </c>
       <c r="H19">
-        <v>0.210960960960961</v>
+        <v>0.2100656455142232</v>
       </c>
       <c r="I19">
-        <v>0.09984984984984985</v>
+        <v>0.1013858497447119</v>
       </c>
       <c r="J19">
-        <v>0.3348348348348348</v>
+        <v>0.3362509117432531</v>
       </c>
       <c r="K19">
-        <v>0.1066066066066066</v>
+        <v>0.1064916119620715</v>
       </c>
       <c r="L19">
         <v>0</v>
       </c>
       <c r="M19">
-        <v>0.02402402402402402</v>
+        <v>0.02479941648431802</v>
       </c>
       <c r="N19">
-        <v>0.0007507507507507507</v>
+        <v>0.0007293946024799417</v>
       </c>
       <c r="O19">
-        <v>0.07507507507507508</v>
+        <v>0.07439824945295405</v>
       </c>
       <c r="P19">
         <v>0</v>
@@ -1552,7 +1552,7 @@
         <v>0</v>
       </c>
       <c r="S19">
-        <v>0.1351351351351351</v>
+        <v>0.1327498176513494</v>
       </c>
     </row>
   </sheetData>
